--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533524.609611377</v>
+        <v>1577828.786292786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484461</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6451364.79790427</v>
+        <v>6473374.728979674</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.9639268876599</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>111.0434541122012</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -829,7 +829,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>172.0647531850085</v>
+        <v>17.13566966865592</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>430.8371688139011</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>303.8392857606904</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>1.93390106101495</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>331.7220152307466</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1351,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>196.5161789233726</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.2534186025694</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>71.43430199953102</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,13 +1528,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>54.66258501924938</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>236.8407971234365</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.22772027659386</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1771,10 +1771,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>235.4893695038527</v>
+        <v>84.71997427496098</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>107.8437233963812</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>54.53682144529132</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226131</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>84.01976803536533</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,10 +2761,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>125.6544692828921</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225797</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>50.3082548690723</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.3916857660885</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3667,13 +3667,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361713</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245674</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>424.750038935513</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016053</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3946,13 +3946,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>13.99728392830642</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>221.1652862082625</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4258646586657</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>174.2076243880197</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>148.6041873872572</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>120.1472970361166</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1377.7486380873</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>939.6061652707231</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678147</v>
+        <v>503.6963804451676</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>69.92163560346272</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307451</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307451</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307451</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021452</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331324</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331324</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.97515238142</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.97515238142</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.97515238142</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.97515238142</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299074</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257669</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1921.274083944552</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1516.418629355586</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1404.253524191746</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1400.007804531803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715073</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081496</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547028</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816565</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978181</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400205</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021452</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067211</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245391</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720497</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512705</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>1036.076032066771</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>863.5143205499961</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>697.6363277515188</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>527.8783240022561</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>351.1712699640124</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>185.57999498984</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021452</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021452</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021452</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>196.7623387080846</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>614.9722204760457</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1074.456087656959</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1516.714890814603</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1936.384140040384</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010726</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2038.011587589181</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1759.578586842286</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1472.623078712717</v>
       </c>
       <c r="W4" t="n">
-        <v>1523.380649085459</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="X4" t="n">
-        <v>1277.988894418872</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>1227.894650785758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1785.732350522015</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>1751.630281745843</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.460010076612</v>
+        <v>1812.237236626462</v>
       </c>
       <c r="Y5" t="n">
-        <v>1385.214290416669</v>
+        <v>1807.991516966519</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.89710401677496</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5535525019498</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5271480882413</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>455.1353934216538</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>227.7157227357621</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>797.5980855216599</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>369.0164112589282</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>506.7550939540876</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>261.3633392875001</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2492.071939528658</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3472.251606098964</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4300.561480932361</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4616.731606928795</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169984</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469637</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>784.8119928040987</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>784.8119928040987</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777443</v>
+        <v>618.9340000056216</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.977765289287</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.098318867742</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.665318120848</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>976.6306115230859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847296</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939374</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172013</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928795</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4357.509304245812</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3994.892354179638</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3590.036899590672</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3170.894436169983</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2762.608312469636</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1006.036133543734</v>
+        <v>999.0870832547524</v>
       </c>
       <c r="C16" t="n">
-        <v>833.4744220269588</v>
+        <v>826.5253717379774</v>
       </c>
       <c r="D16" t="n">
-        <v>667.5964292284815</v>
+        <v>660.6473789395002</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>490.8893751902374</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G16" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2229.648090158478</v>
+        <v>2222.699039869497</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.692582028909</v>
+        <v>1935.743531739927</v>
       </c>
       <c r="W16" t="n">
-        <v>1670.6661776152</v>
+        <v>1663.717127326219</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.274422948613</v>
+        <v>1418.325372659631</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.854752262721</v>
+        <v>1190.905701973739</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181335</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364759</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539202</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697497</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067053</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9331917299692</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423054</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137054</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742884</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085326</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655632</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356876</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.01335631547</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068527</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252364</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125402</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442419</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376246</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787279</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.61114936659</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666243</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137054</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818281</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033252</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047179997</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687369</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563208</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137054</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2114.297957518427</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518427</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438131</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.460127752239</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127512</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>809.5937635959762</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>643.7157707974989</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>473.9577670482361</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>297.2507130099923</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5917,43 +5917,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127512</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6172,10 +6172,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U25" t="n">
         <v>2176.368833962455</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957667</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789916</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>275.7892420570793</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.57329640738</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>831.0115848906048</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>665.1335920921275</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>495.3755883428648</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>318.6685343046209</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
-        <v>153.0772593304486</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093272</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,22 +7175,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.6588228237728</v>
+        <v>875.8255515988629</v>
       </c>
       <c r="C40" t="n">
-        <v>699.0971113069977</v>
+        <v>703.2638400820879</v>
       </c>
       <c r="D40" t="n">
-        <v>533.2191185085204</v>
+        <v>537.3858472836107</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>367.6278435343479</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>190.9207894961041</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961041</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.455595670329</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.155475112751</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455183</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638606</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369041</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.960412460168</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033842</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834421</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.07841419448</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410858</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981164</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.02057581456</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773155</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526211</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526211</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.60619939925</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716266</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650093</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061126</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640437</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940091</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.585213521817</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050125</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319662</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143117</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223594</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015801</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142404</v>
+        <v>999.0870832547529</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.909917625631</v>
+        <v>826.5253717379778</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271533</v>
+        <v>660.6473789395006</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778905</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396467</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654744</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558489</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663496</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S43" t="n">
-        <v>2681.516586504043</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T43" t="n">
-        <v>2681.516586504043</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U43" t="n">
-        <v>2403.083585757148</v>
+        <v>2222.699039869497</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.128077627578</v>
+        <v>1935.743531739928</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.10167321387</v>
+        <v>1663.717127326219</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547283</v>
+        <v>1418.325372659632</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861391</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168565</v>
+        <v>2522.958394689266</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872689</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526433</v>
+        <v>1648.906137047134</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205429</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874949</v>
+        <v>787.2639626146365</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107588</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397513</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I44" t="n">
         <v>96.73597668111513</v>
@@ -7655,43 +7655,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3598.448757555621</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344105</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.6447693027</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055757</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239594</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112632</v>
+        <v>4616.731606928795</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429649</v>
+        <v>4357.509304245812</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.542006884176</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774509</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928041002</v>
+        <v>976.6306115230864</v>
       </c>
       <c r="C46" t="n">
-        <v>612.2502812873252</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D46" t="n">
-        <v>612.2502812873252</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E46" t="n">
         <v>490.8893751902376</v>
@@ -7810,10 +7810,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849019</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7849,7 +7849,7 @@
         <v>1204.050282208978</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230873</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320107</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705759</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,13 +8690,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>661.550297343359</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>541.6538920438343</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265092</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>833.0630236930792</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290751</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>527.9769957459434</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>184.7831561774893</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>185.1957776566223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.4628789093299</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.4233680290245</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>185.1957776566221</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.15930123557302</v>
+        <v>190.9286964644647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>178.3951296148347</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>109.3985407791393</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.592177662722</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>54.48338453116389</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>88.19489769745692</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.50874676570875</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>63.43016517136617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.800648041786907</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6516710866769</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.48338453116324</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>184.783156177492</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>22.23190701435007</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>47.91312667565349</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>554543.759676462</v>
+        <v>559056.4301016012</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>554543.759676462</v>
+        <v>562026.6609110625</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>554543.759676462</v>
+        <v>562026.6609110625</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544208.004030115</v>
+        <v>544208.0040301149</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544208.004030115</v>
+        <v>544208.0040301149</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>551887.3082372147</v>
+        <v>567174.2036764824</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567174.2036764824</v>
+        <v>567174.2036764825</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567174.2036764825</v>
+        <v>567174.2036764824</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559494.8994693827</v>
+        <v>544208.004030115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544208.0040301151</v>
+        <v>544208.0040301147</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="C2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="D2" t="n">
         <v>402110.4899178064</v>
       </c>
-      <c r="C2" t="n">
-        <v>402110.4899178064</v>
-      </c>
-      <c r="D2" t="n">
-        <v>402110.4899178063</v>
-      </c>
       <c r="E2" t="n">
-        <v>379142.9234787572</v>
+        <v>379142.9234787571</v>
       </c>
       <c r="F2" t="n">
         <v>379142.9234787572</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650085</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167628</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787573</v>
+        <v>379142.923478757</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476941</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>18928.52796216484</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996512</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256756</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839328</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>158508.4222774733</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960742</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960741</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554728</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26454,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.1641639729</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="P4" t="n">
-        <v>39457.78817960742</v>
+        <v>39457.78817960741</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696303</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024161</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319841</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764751</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12929.86806506087</v>
+        <v>-16086.77982432417</v>
       </c>
       <c r="C6" t="n">
-        <v>155121.1687247708</v>
+        <v>157324.1831796857</v>
       </c>
       <c r="D6" t="n">
-        <v>155121.1687247707</v>
+        <v>188514.2181171442</v>
       </c>
       <c r="E6" t="n">
-        <v>31810.77099946488</v>
+        <v>104354.1592565911</v>
       </c>
       <c r="F6" t="n">
-        <v>266165.7930215023</v>
+        <v>266089.2344667054</v>
       </c>
       <c r="G6" t="n">
-        <v>263225.8670763709</v>
+        <v>257350.2452657615</v>
       </c>
       <c r="H6" t="n">
-        <v>263899.2425873438</v>
+        <v>276278.7732279263</v>
       </c>
       <c r="I6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279263</v>
       </c>
       <c r="J6" t="n">
-        <v>165287.5322223188</v>
+        <v>126887.1768022507</v>
       </c>
       <c r="K6" t="n">
-        <v>276301.997567309</v>
+        <v>251431.8364439935</v>
       </c>
       <c r="L6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279263</v>
       </c>
       <c r="M6" t="n">
-        <v>80700.81828424132</v>
+        <v>141288.828614923</v>
       </c>
       <c r="N6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279263</v>
       </c>
       <c r="O6" t="n">
-        <v>272912.7124695915</v>
+        <v>266089.2344667055</v>
       </c>
       <c r="P6" t="n">
-        <v>266165.7930215023</v>
+        <v>266089.2344667052</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="P4" t="n">
         <v>1209.199708513939</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517548</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761328</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517548</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517548</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>106.4730705056278</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>303.9075846742812</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.24138718456288</v>
+        <v>252.1704707009155</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0.7135181633988168</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>111.111753025792</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.9021933405924</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,10 +27822,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3.32966510043002</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>91.86674006413767</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.78996144619882</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-4.816298607236512e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026815</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320107</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705759</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>661.550297343359</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>541.6538920438343</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35814,10 +35814,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,13 +35893,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265092</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,16 +36048,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>833.0630236930792</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,25 +37543,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290751</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>527.9769957459434</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
